--- a/biology/Histoire de la zoologie et de la botanique/George_French_Angas/George_French_Angas.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_French_Angas/George_French_Angas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George French Angas est un illustrateur et un naturaliste britannique, né le 25 avril 1822 à Newcastle upon Tyne et mort le 4 octobre 1886 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils aîné de George Fife Angas (1789-1879), figure importante de la colonie britannique en Australie-Méridionale. Il étudie la lithographie et le dessin anatomique. Il part en 1843 en Australie-Méridionale où il accompagne le gouverneur Sir George Grey (1812-1898) dans ses expéditions à travers le pays et où il dessine les paysages, les aborigènes, la flore et la faune. Il revient en Grande-Bretagne en 1846 où il fait paraître ses dessins accompagnés par d’autres faits en Nouvelle-Zélande sous le titre de Savage life and scenes in Australia and New Zealand: being an artist's impressions of countries and people at the Antipodes. Il retourne en Australie-Méridionale en 1849 où il devient le secrétaire de l’Australian Museum du 30 octobre 1853 au 1er mars 1860. Il retourne en Grande-Bretagne en 1861.
 Plusieurs espèces lui ont été dédiées, principalement des mollusques et d’autres invertébrés. Il est aussi l'auteur de :
@@ -549,7 +563,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : VIII-380 p.</t>
         </is>
